--- a/output/fit_clients/fit_round_398.xlsx
+++ b/output/fit_clients/fit_round_398.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1656197009.201214</v>
+        <v>2486320226.332711</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08087852181862976</v>
+        <v>0.09165778172685599</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04467359872471353</v>
+        <v>0.02834421881351424</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>828098453.9976705</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2304343897.260455</v>
+        <v>1919748844.400684</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1626315674591563</v>
+        <v>0.1401937670653532</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03273261765688647</v>
+        <v>0.04124080489094699</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1152172035.836344</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4171247840.56261</v>
+        <v>3847246916.483174</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1007246291481737</v>
+        <v>0.1170031813380236</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02555385565076529</v>
+        <v>0.02755273408493546</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>143</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2085623946.618015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2785283360.568541</v>
+        <v>3250147154.35756</v>
       </c>
       <c r="F5" t="n">
-        <v>0.071029629469941</v>
+        <v>0.06695947031264642</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0430531898908563</v>
+        <v>0.04377839361147419</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>147</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1392641764.384515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2449744750.217443</v>
+        <v>2564870927.710916</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09542848462298567</v>
+        <v>0.1114430918976901</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03781926438603256</v>
+        <v>0.03997688520787341</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1224872356.044223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2219446161.796125</v>
+        <v>2166967457.333493</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06568162276129461</v>
+        <v>0.09621802713489054</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0301292714056755</v>
+        <v>0.04548209443362241</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>125</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1109723120.914043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3498653305.601283</v>
+        <v>3385784646.796735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1389029321543852</v>
+        <v>0.1489954189551843</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0316428093701115</v>
+        <v>0.03113767074971294</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>126</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1749326761.304553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1512756149.140248</v>
+        <v>1671770438.768545</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1812759791755965</v>
+        <v>0.12966762676063</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03347937827078443</v>
+        <v>0.02715090349684241</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>756378168.790821</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4581881249.758084</v>
+        <v>5690153611.474522</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1451165753551078</v>
+        <v>0.1663956291574303</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03415686655664184</v>
+        <v>0.04815703209422684</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>167</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2290940691.83745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2773578480.768183</v>
+        <v>3746185095.38335</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1157041191598136</v>
+        <v>0.129930853589376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04071130463810444</v>
+        <v>0.0400456984918755</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>164</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1386789167.538806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2565321670.827509</v>
+        <v>2724646319.112113</v>
       </c>
       <c r="F12" t="n">
-        <v>0.151439617848451</v>
+        <v>0.1967163238787689</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0508460933979777</v>
+        <v>0.05302582910435747</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>135</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1282660813.637265</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4057246844.563293</v>
+        <v>4848248755.592634</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07619390578886846</v>
+        <v>0.07087110333416959</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02655015731197335</v>
+        <v>0.02556390235354797</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>134</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2028623474.315051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3728816205.508746</v>
+        <v>3688995267.089295</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1798640870144061</v>
+        <v>0.1768202722510233</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04340990311973431</v>
+        <v>0.02979594262587891</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1864408084.43045</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1688058504.527567</v>
+        <v>1564650638.586539</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08836011223673039</v>
+        <v>0.09665962727385673</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03842130464733382</v>
+        <v>0.03054143561348113</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>844029380.4271488</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2298571705.432894</v>
+        <v>2111647201.348069</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07948453334901105</v>
+        <v>0.1058096606238213</v>
       </c>
       <c r="G16" t="n">
-        <v>0.036150305636972</v>
+        <v>0.04398004747481878</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1149285901.554872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5328225550.920257</v>
+        <v>3277773330.684637</v>
       </c>
       <c r="F17" t="n">
-        <v>0.168747120659321</v>
+        <v>0.1585599703000579</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04852494961663852</v>
+        <v>0.04429562736065336</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>117</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2664112744.412889</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3385326360.965742</v>
+        <v>3663872151.782052</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1833223359576155</v>
+        <v>0.1191362821724936</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02391418682655396</v>
+        <v>0.0288291016032716</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>131</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1692663182.817122</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1177353102.063019</v>
+        <v>1324837103.785855</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1403073889277998</v>
+        <v>0.1763389241344708</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02651055863240274</v>
+        <v>0.01799265594649332</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>588676623.4855063</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1763611376.045807</v>
+        <v>1969157650.721122</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1157038572343959</v>
+        <v>0.1240666905384876</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02372802589061138</v>
+        <v>0.02131325436523171</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>881805739.5492833</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2210814395.480285</v>
+        <v>2118508414.856604</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09878362299201791</v>
+        <v>0.08168996427823896</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04236620905306148</v>
+        <v>0.03861501666842136</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1105407213.541087</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3877904268.278831</v>
+        <v>3772554851.165968</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09031925589108496</v>
+        <v>0.1098138592099746</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04755209476820587</v>
+        <v>0.04754285233303927</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1938952143.115447</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1355607663.012503</v>
+        <v>1189506974.615328</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1453536297212503</v>
+        <v>0.1395995510614277</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05377262258271479</v>
+        <v>0.03672505367578958</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>677803841.7840215</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3185192528.809237</v>
+        <v>3564407166.947591</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1410317453852458</v>
+        <v>0.1289054857480818</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02403475168080168</v>
+        <v>0.02989003996918158</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>116</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1592596287.210015</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>916144582.61538</v>
+        <v>1327906119.433353</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1170450076612851</v>
+        <v>0.07714298604075299</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02489489030685466</v>
+        <v>0.02210073958342485</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>458072374.6159873</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1392592392.982264</v>
+        <v>1020577095.943087</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08968444518717171</v>
+        <v>0.1065675591718821</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02683800121860008</v>
+        <v>0.03118066547143846</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>696296264.6804856</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4413187949.008375</v>
+        <v>3698338212.426587</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1147843104711885</v>
+        <v>0.1310802605796692</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0223743214824718</v>
+        <v>0.01710847842644564</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2206593964.12597</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2722425765.446541</v>
+        <v>3367465905.488078</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1036088003341909</v>
+        <v>0.1270258944645597</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04278830302666577</v>
+        <v>0.03186793044624134</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>128</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1361212869.89166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3721185300.116888</v>
+        <v>4906372486.117647</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1455574244177278</v>
+        <v>0.1471134103526805</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03439958129000661</v>
+        <v>0.03224485643555881</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>175</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1860592686.219228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2055171078.435342</v>
+        <v>1619533772.211625</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1189993905234427</v>
+        <v>0.1370741244388507</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03362188075311857</v>
+        <v>0.03973145455001516</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1027585583.006173</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1379771017.066592</v>
+        <v>1091027827.583682</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09800218177373569</v>
+        <v>0.08534894478646543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03553285843578433</v>
+        <v>0.04223213490448901</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>689885417.6868589</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1627464475.759271</v>
+        <v>1220864998.464612</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1135704762776504</v>
+        <v>0.09217088156302454</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02716500862642779</v>
+        <v>0.03300311423326961</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>813732332.6551279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2227640490.524198</v>
+        <v>1904845097.368423</v>
       </c>
       <c r="F33" t="n">
-        <v>0.197554960765892</v>
+        <v>0.2020396627868087</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03944536056800008</v>
+        <v>0.06091602373047166</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1113820306.68234</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1099827720.761915</v>
+        <v>1457734616.685935</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1184039461151322</v>
+        <v>0.1092306549668059</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02209005572887089</v>
+        <v>0.02690076242668896</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>549913881.8787075</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>988484524.1075274</v>
+        <v>1180312748.725331</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07619568560195296</v>
+        <v>0.07714362096815626</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0410830366690554</v>
+        <v>0.04367496227180447</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>494242283.1649618</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2060506348.620193</v>
+        <v>2134929064.183513</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1705260533458263</v>
+        <v>0.1125581719781733</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01909393283586302</v>
+        <v>0.0226899214681291</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1030253231.530741</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2665740089.187191</v>
+        <v>2929849173.177327</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08209637301881786</v>
+        <v>0.07677028812365665</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03042315416512613</v>
+        <v>0.03448986773268264</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>105</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1332870163.471601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1459296187.114045</v>
+        <v>1909600074.028985</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1110725488586459</v>
+        <v>0.1085715067110981</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03976339006569454</v>
+        <v>0.03956282798544633</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>729648148.5766462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2028817141.870111</v>
+        <v>1948490280.359723</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1342853130425223</v>
+        <v>0.1265127489798381</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03301651538016789</v>
+        <v>0.0260595250849838</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1014408561.097761</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1354953363.338639</v>
+        <v>1208883366.393633</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1449261704285387</v>
+        <v>0.123365095610479</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05498849954787943</v>
+        <v>0.04366465389617621</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>677476684.1733179</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2781777833.417214</v>
+        <v>2793317697.013663</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1151899941169988</v>
+        <v>0.1557679093713406</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0316292259039283</v>
+        <v>0.03427136916853842</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>101</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1390888914.385043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3049469310.081194</v>
+        <v>2724427378.828342</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1037425099102083</v>
+        <v>0.1252917922816882</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03245688574118667</v>
+        <v>0.04143449509684376</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>133</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1524734618.892798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2467588910.974972</v>
+        <v>1989302691.145897</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1394068580845641</v>
+        <v>0.1933798948366062</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02382804869746694</v>
+        <v>0.02159161204416313</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>139</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1233794507.434869</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2062268325.608013</v>
+        <v>1437355723.151164</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06300283474759209</v>
+        <v>0.09538913811389702</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03203731326319842</v>
+        <v>0.03351652547223843</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1031134281.587872</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2259997947.583016</v>
+        <v>2273372068.24104</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1866942826648907</v>
+        <v>0.1942266703492637</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04254306216602428</v>
+        <v>0.05098067978027157</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1129998990.916769</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5591869121.131856</v>
+        <v>5047953121.731185</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1450455183991644</v>
+        <v>0.1312439753141754</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04187254578393183</v>
+        <v>0.05355310394218735</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>141</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2795934621.264495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3218116726.243836</v>
+        <v>4671758429.394425</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1512123449240137</v>
+        <v>0.136422014458837</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04698502161138873</v>
+        <v>0.05456047522597127</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>106</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1609058317.947832</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3275827682.367643</v>
+        <v>3703749475.97432</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07525650090397318</v>
+        <v>0.0811563752216789</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02728331889808266</v>
+        <v>0.03540832056325455</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1637913917.68733</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1832033206.763355</v>
+        <v>1383269205.249226</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1355416150354883</v>
+        <v>0.1351556432037527</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04279961244218949</v>
+        <v>0.03837136223926798</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>916016583.7873662</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3991159069.74632</v>
+        <v>4162849716.263591</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1128438204983913</v>
+        <v>0.1263087081810775</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04885786469768994</v>
+        <v>0.04128939628608085</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>135</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1995579524.197015</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1081611788.603781</v>
+        <v>1065690823.791717</v>
       </c>
       <c r="F51" t="n">
-        <v>0.128963535431369</v>
+        <v>0.142567540975709</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04535814028950948</v>
+        <v>0.05400753057838116</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>540805965.062637</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4002716155.35801</v>
+        <v>5286256507.728764</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1196936634327187</v>
+        <v>0.1038815647986988</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04512342130882348</v>
+        <v>0.03806785015568957</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>164</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2001358134.011905</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2781097093.823503</v>
+        <v>3237353231.298827</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1751597146683699</v>
+        <v>0.1780338402438538</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03362117585071595</v>
+        <v>0.02403342815474274</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>115</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1390548594.506486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4862390440.377657</v>
+        <v>4032535937.477678</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1550463913028479</v>
+        <v>0.1057561723820774</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0456312484933136</v>
+        <v>0.03229451685509546</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>129</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2431195352.01079</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3297081186.302145</v>
+        <v>4839068669.117544</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1723977242743668</v>
+        <v>0.1788752435325908</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02175875188536217</v>
+        <v>0.0214818056105909</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1648540537.053359</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1716480528.366083</v>
+        <v>1654605231.451237</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1544171603406406</v>
+        <v>0.1419063665439106</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04248177426368414</v>
+        <v>0.04248843877454237</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>858240274.3536826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3265453802.469037</v>
+        <v>3989551146.004971</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1205917904549236</v>
+        <v>0.1304637284734835</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02679827700767157</v>
+        <v>0.02680033748084923</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>127</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1632726927.942306</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1616158485.363088</v>
+        <v>1585597911.326967</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1241501776484133</v>
+        <v>0.1792780498388429</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03680145277332896</v>
+        <v>0.03041900052379985</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>808079263.2238441</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3553299894.05305</v>
+        <v>4907555708.621694</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1013918998985694</v>
+        <v>0.1020665844595675</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03913964422450102</v>
+        <v>0.03978684988848612</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1776649944.540199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2394446182.616528</v>
+        <v>2449748048.051085</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1246446583364114</v>
+        <v>0.1516321285497788</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02604085216093705</v>
+        <v>0.02234050172529095</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>124</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1197223098.153343</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2719561762.846718</v>
+        <v>2717353027.150672</v>
       </c>
       <c r="F61" t="n">
-        <v>0.146489279444977</v>
+        <v>0.1574874504324122</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02859676408886905</v>
+        <v>0.02780970911317887</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>136</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1359780888.347926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1496024267.933807</v>
+        <v>1792929843.242489</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1224772604629425</v>
+        <v>0.1187786635210593</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03412981639171278</v>
+        <v>0.0472501580327303</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>748012116.4398545</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3938069897.404284</v>
+        <v>4548914082.244434</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06844871015994886</v>
+        <v>0.09032575614806895</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03849184790639756</v>
+        <v>0.03544328027085292</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>115</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1969035013.844708</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4641348710.023684</v>
+        <v>3793304499.786749</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1480425370068759</v>
+        <v>0.1265367569744296</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02683476692170145</v>
+        <v>0.02865267949701916</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>123</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2320674435.99588</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4063727159.071616</v>
+        <v>4304850505.213998</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1048758016315259</v>
+        <v>0.1740913390288404</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02087456066370489</v>
+        <v>0.0260546687364491</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>143</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2031863594.318395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5286943259.531446</v>
+        <v>4790147851.922902</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1519385659979271</v>
+        <v>0.1030575573716777</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04331253689555661</v>
+        <v>0.03884031683625806</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>115</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2643471672.312953</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2337650689.324323</v>
+        <v>3508089743.356185</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07135426407606482</v>
+        <v>0.09246885527017809</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04338214957034738</v>
+        <v>0.04562127812114659</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>127</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1168825419.041909</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3794433206.992965</v>
+        <v>4390094625.687591</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1011413287090285</v>
+        <v>0.1005334984985896</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04316082543151468</v>
+        <v>0.03909294720923503</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1897216586.853454</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2107782814.120704</v>
+        <v>2288171223.635468</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1230849361703407</v>
+        <v>0.1749864600199311</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03662891736608519</v>
+        <v>0.04810811513800661</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1053891425.953187</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2840908493.760648</v>
+        <v>2677470896.673098</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09788384988227451</v>
+        <v>0.07250600499608303</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03221649896574812</v>
+        <v>0.03533315660829622</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>114</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1420454213.540854</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4018188190.682251</v>
+        <v>5055753360.897247</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1134633277192057</v>
+        <v>0.1271846540941404</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03395471554169651</v>
+        <v>0.03192270892006235</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>144</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2009094127.800716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2196167105.632196</v>
+        <v>2037219492.11065</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07718911768517567</v>
+        <v>0.09937595832346217</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04211320152483785</v>
+        <v>0.03462919044984716</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1098083467.548259</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3432100919.326432</v>
+        <v>2203619652.69543</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09499766608667078</v>
+        <v>0.09172215867502004</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04305880335219894</v>
+        <v>0.05258635992285994</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>151</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1716050416.068621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3883764687.746248</v>
+        <v>3684773831.331176</v>
       </c>
       <c r="F74" t="n">
-        <v>0.126017043980362</v>
+        <v>0.1252763230786266</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02510003883919726</v>
+        <v>0.03432943678634348</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>135</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1941882332.847482</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1601787634.478118</v>
+        <v>2193560160.692661</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1502742371568604</v>
+        <v>0.1281435782068097</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03088076083824395</v>
+        <v>0.03075468006409145</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>800893818.7368944</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4486195506.791788</v>
+        <v>3488647239.38786</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1095618943986902</v>
+        <v>0.1082922726398648</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02242018091735041</v>
+        <v>0.02830676817632153</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2243097758.514726</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1515017501.424146</v>
+        <v>1997551844.436121</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1383173773319369</v>
+        <v>0.1531793516424031</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02873141712988229</v>
+        <v>0.0240240338733728</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>757508740.6595672</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4221442324.688295</v>
+        <v>4626415815.978492</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1164116083167807</v>
+        <v>0.1108545469562436</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05653262167300762</v>
+        <v>0.03534669130889183</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>138</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2110721112.221006</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1387467287.256834</v>
+        <v>1586499447.173569</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1096595876090268</v>
+        <v>0.1457476533655106</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03996733662167459</v>
+        <v>0.02607106574964405</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>693733658.1352553</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5377576716.322402</v>
+        <v>5327302476.071999</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07988461885925945</v>
+        <v>0.08270903193389903</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03072033384814966</v>
+        <v>0.02436871054807981</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2688788426.180288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3315452965.9862</v>
+        <v>4636083848.34698</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1252689110716393</v>
+        <v>0.1101448010356604</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02859161495653698</v>
+        <v>0.02333611816063417</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1657726420.803256</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4930805915.849418</v>
+        <v>4244968284.109377</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1375354133587668</v>
+        <v>0.138157145598305</v>
       </c>
       <c r="G82" t="n">
-        <v>0.027665653209827</v>
+        <v>0.02135361893739934</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>139</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2465402945.731221</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1605197756.85263</v>
+        <v>1710525953.814805</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1368150109628214</v>
+        <v>0.1483010998212166</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04247595351371152</v>
+        <v>0.02812718616845851</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>802598814.6417381</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2039093603.509033</v>
+        <v>2371751628.003065</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07293857860314626</v>
+        <v>0.07490964176283958</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04921974662572163</v>
+        <v>0.03272712124785696</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1019546801.058197</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2263085385.064847</v>
+        <v>3380304927.380782</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1853492212439526</v>
+        <v>0.1840508885176397</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03739437580493433</v>
+        <v>0.05507675286682538</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>150</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1131542671.322352</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2426205074.768936</v>
+        <v>1804294681.366461</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1181607941139838</v>
+        <v>0.1582028835752557</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02240375388721919</v>
+        <v>0.02304380416514385</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1213102624.280305</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1080818240.882901</v>
+        <v>1405015362.796023</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1428582099603275</v>
+        <v>0.1898274781385752</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04226173949929805</v>
+        <v>0.04058371983073272</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>540409145.4873852</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3214910642.370193</v>
+        <v>3536618328.298285</v>
       </c>
       <c r="F88" t="n">
-        <v>0.128082851210048</v>
+        <v>0.150025802309614</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02920548623348649</v>
+        <v>0.03413123206142429</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>157</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1607455372.874619</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3370949672.423995</v>
+        <v>2451447803.253294</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1535936018493073</v>
+        <v>0.1375379828297452</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03137783323421851</v>
+        <v>0.02685846077801142</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>133</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1685474847.157592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1932369435.24363</v>
+        <v>1630606966.354761</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1286552707000265</v>
+        <v>0.08362389905307427</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03667816772832008</v>
+        <v>0.04309302731321218</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>966184775.4765054</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1830146417.470736</v>
+        <v>1445850928.784276</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1251173892069238</v>
+        <v>0.1497495129609485</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03845093879828103</v>
+        <v>0.04956707811852357</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>915073203.6837298</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2160309838.208202</v>
+        <v>2541550689.079308</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1075778307250168</v>
+        <v>0.1103991412498105</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04264701402264123</v>
+        <v>0.03202950226530562</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>114</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1080154877.38526</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3563210597.98768</v>
+        <v>4336759676.269519</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1255261324222137</v>
+        <v>0.1141988139984395</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05138235499640185</v>
+        <v>0.03869988327917915</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1781605327.852698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1551489635.097348</v>
+        <v>2189146573.808963</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1274684643406564</v>
+        <v>0.165449953986974</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02818505062103738</v>
+        <v>0.02974364214454666</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>775744757.5076488</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3076417709.729291</v>
+        <v>3047543782.330415</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1364942522772934</v>
+        <v>0.1270371743714466</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03714492764066475</v>
+        <v>0.03883203544386431</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>96</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1538208849.033502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1547059459.13712</v>
+        <v>1826965272.056944</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09480555753270663</v>
+        <v>0.09914795741024877</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03886784646941675</v>
+        <v>0.042709366633832</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>773529764.9277855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5302888279.987864</v>
+        <v>5212044830.03805</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1398227936982599</v>
+        <v>0.1594927147772798</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0259968009762685</v>
+        <v>0.02827828552745471</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>127</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2651444301.177193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3804441766.927836</v>
+        <v>3758149742.235378</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09122250820065907</v>
+        <v>0.08917628898691335</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02983834926360345</v>
+        <v>0.02718041318301023</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1902220922.716256</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2419244523.740002</v>
+        <v>3287714444.798132</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09104481097013389</v>
+        <v>0.1156006561927924</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02395226463305765</v>
+        <v>0.02298772386132139</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1209622205.743276</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4766465078.554092</v>
+        <v>4219067486.183657</v>
       </c>
       <c r="F100" t="n">
-        <v>0.166704785591069</v>
+        <v>0.1507579210495251</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02409893359468974</v>
+        <v>0.02508738947377232</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2383232671.158773</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3546566693.340095</v>
+        <v>2486815295.39059</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1639649935025029</v>
+        <v>0.1885998954875037</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05438140998695658</v>
+        <v>0.04319271083062037</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>162</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1773283507.976232</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_398.xlsx
+++ b/output/fit_clients/fit_round_398.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2486320226.332711</v>
+        <v>2423527688.866086</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09165778172685599</v>
+        <v>0.07210748016003274</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02834421881351424</v>
+        <v>0.04237211420494419</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1919748844.400684</v>
+        <v>1788367471.676328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1401937670653532</v>
+        <v>0.1297758306067674</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04124080489094699</v>
+        <v>0.03325976006274585</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3847246916.483174</v>
+        <v>3775723477.732852</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1170031813380236</v>
+        <v>0.1130039981624901</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02755273408493546</v>
+        <v>0.02995604887864629</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3250147154.35756</v>
+        <v>2814589961.012574</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06695947031264642</v>
+        <v>0.08254408228347082</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04377839361147419</v>
+        <v>0.05003884097364093</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2564870927.710916</v>
+        <v>2354703089.215113</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1114430918976901</v>
+        <v>0.1477360948444609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03997688520787341</v>
+        <v>0.05573602350220214</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2166967457.333493</v>
+        <v>2374083616.281487</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09621802713489054</v>
+        <v>0.09575374607257663</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04548209443362241</v>
+        <v>0.03578924767628659</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3385784646.796735</v>
+        <v>2542810238.80466</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489954189551843</v>
+        <v>0.1396850712761069</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03113767074971294</v>
+        <v>0.0239158420576207</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1671770438.768545</v>
+        <v>1923677951.564901</v>
       </c>
       <c r="F9" t="n">
-        <v>0.12966762676063</v>
+        <v>0.1708626981760754</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02715090349684241</v>
+        <v>0.02754566067270725</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5690153611.474522</v>
+        <v>4079591532.7359</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1663956291574303</v>
+        <v>0.1523566462909449</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04815703209422684</v>
+        <v>0.05139567158690311</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3746185095.38335</v>
+        <v>2857536517.844141</v>
       </c>
       <c r="F11" t="n">
-        <v>0.129930853589376</v>
+        <v>0.1415920908127901</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0400456984918755</v>
+        <v>0.03897120331352232</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2724646319.112113</v>
+        <v>2707426219.54666</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1967163238787689</v>
+        <v>0.1579807623395922</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05302582910435747</v>
+        <v>0.04117453182674131</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4848248755.592634</v>
+        <v>3973009580.828241</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07087110333416959</v>
+        <v>0.09602115404813488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02556390235354797</v>
+        <v>0.02508313793025516</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3688995267.089295</v>
+        <v>2653675836.594012</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1768202722510233</v>
+        <v>0.1788222432732076</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02979594262587891</v>
+        <v>0.02759504150023664</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1564650638.586539</v>
+        <v>1598096274.751409</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09665962727385673</v>
+        <v>0.09967894152414408</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03054143561348113</v>
+        <v>0.03319213905434636</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2111647201.348069</v>
+        <v>2203175830.784138</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1058096606238213</v>
+        <v>0.09304899563594081</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04398004747481878</v>
+        <v>0.03767667100236778</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3277773330.684637</v>
+        <v>4383953467.969888</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1585599703000579</v>
+        <v>0.1194308934730809</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04429562736065336</v>
+        <v>0.03878075578514627</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3663872151.782052</v>
+        <v>3680140059.445457</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1191362821724936</v>
+        <v>0.1435561661749113</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0288291016032716</v>
+        <v>0.02695386487051327</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1324837103.785855</v>
+        <v>926813306.4813071</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1763389241344708</v>
+        <v>0.1409896638159171</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01799265594649332</v>
+        <v>0.02660576562346137</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1969157650.721122</v>
+        <v>1817227539.023284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1240666905384876</v>
+        <v>0.1437000815347231</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02131325436523171</v>
+        <v>0.03051481925751805</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2118508414.856604</v>
+        <v>2072412545.887682</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08168996427823896</v>
+        <v>0.08422572939648994</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03861501666842136</v>
+        <v>0.04178522063899015</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3772554851.165968</v>
+        <v>3236532049.299035</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1098138592099746</v>
+        <v>0.1442324650399815</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04754285233303927</v>
+        <v>0.04550403393907538</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1189506974.615328</v>
+        <v>1137976305.659034</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1395995510614277</v>
+        <v>0.1653977269845552</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03672505367578958</v>
+        <v>0.04101717603266913</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3564407166.947591</v>
+        <v>4092615701.815367</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1289054857480818</v>
+        <v>0.1160278960110632</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02989003996918158</v>
+        <v>0.02401695225660205</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1327906119.433353</v>
+        <v>1289643066.811812</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07714298604075299</v>
+        <v>0.09287682036881148</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02210073958342485</v>
+        <v>0.02615141653675293</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1020577095.943087</v>
+        <v>1022739426.328198</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1065675591718821</v>
+        <v>0.09043588053486332</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03118066547143846</v>
+        <v>0.03692632799317525</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3698338212.426587</v>
+        <v>4563467160.078381</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1310802605796692</v>
+        <v>0.1275663568580217</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01710847842644564</v>
+        <v>0.02486905479752613</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3367465905.488078</v>
+        <v>2556232103.900696</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1270258944645597</v>
+        <v>0.1250368237308495</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03186793044624134</v>
+        <v>0.04686656259439482</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4906372486.117647</v>
+        <v>4205721774.580832</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1471134103526805</v>
+        <v>0.1454388063214158</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03224485643555881</v>
+        <v>0.02817154971215582</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1619533772.211625</v>
+        <v>2207174575.830874</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1370741244388507</v>
+        <v>0.09351974184339977</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03973145455001516</v>
+        <v>0.03104809457515055</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1091027827.583682</v>
+        <v>1012941366.152519</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08534894478646543</v>
+        <v>0.08516470843017326</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04223213490448901</v>
+        <v>0.04834895885455572</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1220864998.464612</v>
+        <v>1587682620.076265</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09217088156302454</v>
+        <v>0.1196302244095899</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03300311423326961</v>
+        <v>0.03134250812416814</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1904845097.368423</v>
+        <v>2405897496.69605</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2020396627868087</v>
+        <v>0.1603884597863512</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06091602373047166</v>
+        <v>0.0566220835951519</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1457734616.685935</v>
+        <v>1238369537.295613</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1092306549668059</v>
+        <v>0.1193417578698983</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02690076242668896</v>
+        <v>0.02546025355411493</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1180312748.725331</v>
+        <v>905612919.9834162</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07714362096815626</v>
+        <v>0.1182335738739564</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04367496227180447</v>
+        <v>0.03634553421139154</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2134929064.183513</v>
+        <v>3195171587.55374</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1125581719781733</v>
+        <v>0.1451989733260149</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0226899214681291</v>
+        <v>0.02207047767951946</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2929849173.177327</v>
+        <v>1914857532.092145</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07677028812365665</v>
+        <v>0.1067592617891018</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03448986773268264</v>
+        <v>0.02937034046520892</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1909600074.028985</v>
+        <v>1503215332.560566</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1085715067110981</v>
+        <v>0.08162013546580818</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03956282798544633</v>
+        <v>0.03583736943186231</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1948490280.359723</v>
+        <v>1817820459.953411</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1265127489798381</v>
+        <v>0.136400927738632</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0260595250849838</v>
+        <v>0.02025930396767633</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1208883366.393633</v>
+        <v>1454515846.214146</v>
       </c>
       <c r="F40" t="n">
-        <v>0.123365095610479</v>
+        <v>0.1240939622769218</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04366465389617621</v>
+        <v>0.03675177239520976</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2793317697.013663</v>
+        <v>1838822606.883406</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1557679093713406</v>
+        <v>0.1158183090757383</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03427136916853842</v>
+        <v>0.04351640280955679</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2724427378.828342</v>
+        <v>2789275910.350388</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1252917922816882</v>
+        <v>0.1192018283288619</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04143449509684376</v>
+        <v>0.04504926911354131</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1989302691.145897</v>
+        <v>1915375148.202592</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1933798948366062</v>
+        <v>0.1706270910081931</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02159161204416313</v>
+        <v>0.0224082882580103</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1437355723.151164</v>
+        <v>2036028926.367002</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09538913811389702</v>
+        <v>0.07246695037213965</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03351652547223843</v>
+        <v>0.02442109824540883</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2273372068.24104</v>
+        <v>2261315642.283815</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1942266703492637</v>
+        <v>0.1328743796664208</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05098067978027157</v>
+        <v>0.05512295605176594</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5047953121.731185</v>
+        <v>5210464558.416321</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1312439753141754</v>
+        <v>0.1150526064597857</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05355310394218735</v>
+        <v>0.05070042115545294</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4671758429.394425</v>
+        <v>4091779595.246004</v>
       </c>
       <c r="F47" t="n">
-        <v>0.136422014458837</v>
+        <v>0.1486708720006727</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05456047522597127</v>
+        <v>0.05015959730287817</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3703749475.97432</v>
+        <v>4240587669.215812</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0811563752216789</v>
+        <v>0.08089369767427942</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03540832056325455</v>
+        <v>0.02888441311207998</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1383269205.249226</v>
+        <v>1421985972.320097</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1351556432037527</v>
+        <v>0.1347271025160464</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03837136223926798</v>
+        <v>0.03576490961175475</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4162849716.263591</v>
+        <v>3820589276.405702</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1263087081810775</v>
+        <v>0.1501164465240603</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04128939628608085</v>
+        <v>0.04742172244343862</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1065690823.791717</v>
+        <v>1125906224.204895</v>
       </c>
       <c r="F51" t="n">
-        <v>0.142567540975709</v>
+        <v>0.1517538420900575</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05400753057838116</v>
+        <v>0.03715192296922398</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5286256507.728764</v>
+        <v>3435207388.39962</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1038815647986988</v>
+        <v>0.1081255088373138</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03806785015568957</v>
+        <v>0.04782901049349667</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3237353231.298827</v>
+        <v>2825732999.616369</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1780338402438538</v>
+        <v>0.1867222137153697</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02403342815474274</v>
+        <v>0.02439667186134723</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4032535937.477678</v>
+        <v>3978397115.873531</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1057561723820774</v>
+        <v>0.165506501933997</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03229451685509546</v>
+        <v>0.04897909966242445</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4839068669.117544</v>
+        <v>3643652450.290565</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1788752435325908</v>
+        <v>0.2020913724221003</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0214818056105909</v>
+        <v>0.03151539208278952</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1654605231.451237</v>
+        <v>1595268107.487265</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1419063665439106</v>
+        <v>0.1226312364987177</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04248843877454237</v>
+        <v>0.05318070935700991</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3989551146.004971</v>
+        <v>4128870728.000629</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1304637284734835</v>
+        <v>0.1842564703007267</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02680033748084923</v>
+        <v>0.02309228029451432</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1585597911.326967</v>
+        <v>1390347565.171753</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1792780498388429</v>
+        <v>0.1801730192292282</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03041900052379985</v>
+        <v>0.02431028134503857</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4907555708.621694</v>
+        <v>5288659081.078668</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1020665844595675</v>
+        <v>0.08106222526347007</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03978684988848612</v>
+        <v>0.04851321942823666</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2449748048.051085</v>
+        <v>3195454082.412493</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1516321285497788</v>
+        <v>0.1650163772982438</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02234050172529095</v>
+        <v>0.03092191944301319</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2717353027.150672</v>
+        <v>3188491787.779902</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1574874504324122</v>
+        <v>0.1438694797051773</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02780970911317887</v>
+        <v>0.02363621491165815</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1792929843.242489</v>
+        <v>1313121108.574705</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1187786635210593</v>
+        <v>0.1432006928261816</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0472501580327303</v>
+        <v>0.04186646375629152</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4548914082.244434</v>
+        <v>5584399738.691287</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09032575614806895</v>
+        <v>0.07326592905148822</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03544328027085292</v>
+        <v>0.03688664935602629</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3793304499.786749</v>
+        <v>4703926186.329404</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1265367569744296</v>
+        <v>0.1705531568076817</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02865267949701916</v>
+        <v>0.02971768676620691</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4304850505.213998</v>
+        <v>5865320894.32975</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1740913390288404</v>
+        <v>0.1448138306121327</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0260546687364491</v>
+        <v>0.02250699368831903</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4790147851.922902</v>
+        <v>3535646017.608044</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1030575573716777</v>
+        <v>0.102985473450152</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03884031683625806</v>
+        <v>0.04069545546175</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3508089743.356185</v>
+        <v>2814099542.902548</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09246885527017809</v>
+        <v>0.06977034886168035</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04562127812114659</v>
+        <v>0.04058914058366603</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4390094625.687591</v>
+        <v>4226248723.557601</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1005334984985896</v>
+        <v>0.09724027676865866</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03909294720923503</v>
+        <v>0.04565789803381986</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2288171223.635468</v>
+        <v>1843781737.040905</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1749864600199311</v>
+        <v>0.1581757467143358</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04810811513800661</v>
+        <v>0.04330582142135352</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2677470896.673098</v>
+        <v>3343752806.251897</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07250600499608303</v>
+        <v>0.0695806564671468</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03533315660829622</v>
+        <v>0.04081849698908564</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5055753360.897247</v>
+        <v>5386499662.378092</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1271846540941404</v>
+        <v>0.1431127509286496</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03192270892006235</v>
+        <v>0.02238469551337489</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2037219492.11065</v>
+        <v>2183025960.129336</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09937595832346217</v>
+        <v>0.07147633736512046</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03462919044984716</v>
+        <v>0.04289203139067238</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2203619652.69543</v>
+        <v>3590191295.054932</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09172215867502004</v>
+        <v>0.0953609649001903</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05258635992285994</v>
+        <v>0.04286116536432368</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3684773831.331176</v>
+        <v>2675439837.264304</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1252763230786266</v>
+        <v>0.1125974130475989</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03432943678634348</v>
+        <v>0.02731964469735374</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2193560160.692661</v>
+        <v>1621284057.19769</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1281435782068097</v>
+        <v>0.1674223832797459</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03075468006409145</v>
+        <v>0.02912091956374895</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3488647239.38786</v>
+        <v>4990558744.406502</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1082922726398648</v>
+        <v>0.08407517926596278</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02830676817632153</v>
+        <v>0.02871429605744587</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1997551844.436121</v>
+        <v>1892442454.967709</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1531793516424031</v>
+        <v>0.1621636231530157</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0240240338733728</v>
+        <v>0.02568632552786164</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4626415815.978492</v>
+        <v>4626816236.905936</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1108545469562436</v>
+        <v>0.1002188221649661</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03534669130889183</v>
+        <v>0.04483285580092333</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1586499447.173569</v>
+        <v>1595971386.319741</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1457476533655106</v>
+        <v>0.1429854447646816</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02607106574964405</v>
+        <v>0.04028141609353938</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5327302476.071999</v>
+        <v>4718013596.169822</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08270903193389903</v>
+        <v>0.07590554244740237</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02436871054807981</v>
+        <v>0.02363015326706045</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4636083848.34698</v>
+        <v>3191787818.718151</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1101448010356604</v>
+        <v>0.108383763533232</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02333611816063417</v>
+        <v>0.02109701450982019</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4244968284.109377</v>
+        <v>3727545915.769663</v>
       </c>
       <c r="F82" t="n">
-        <v>0.138157145598305</v>
+        <v>0.1557469544386197</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02135361893739934</v>
+        <v>0.02234132868474798</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1710525953.814805</v>
+        <v>1756838833.243512</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1483010998212166</v>
+        <v>0.1401364001878967</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02812718616845851</v>
+        <v>0.04324483458356242</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2371751628.003065</v>
+        <v>1893185780.892376</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07490964176283958</v>
+        <v>0.08426772162757042</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03272712124785696</v>
+        <v>0.0477752097897144</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3380304927.380782</v>
+        <v>3006500361.600194</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1840508885176397</v>
+        <v>0.1669989740759275</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05507675286682538</v>
+        <v>0.040758545739428</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1804294681.366461</v>
+        <v>1790930460.326648</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1582028835752557</v>
+        <v>0.1521113244080849</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02304380416514385</v>
+        <v>0.02121234318782994</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1405015362.796023</v>
+        <v>966907712.6391253</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1898274781385752</v>
+        <v>0.1672590729091976</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04058371983073272</v>
+        <v>0.03881048871001055</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3536618328.298285</v>
+        <v>3497528422.387812</v>
       </c>
       <c r="F88" t="n">
-        <v>0.150025802309614</v>
+        <v>0.1555118410117138</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03413123206142429</v>
+        <v>0.02926235478259569</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2451447803.253294</v>
+        <v>3039546877.196233</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1375379828297452</v>
+        <v>0.1458855913895444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02685846077801142</v>
+        <v>0.03569462154733993</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1630606966.354761</v>
+        <v>1894548382.697443</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08362389905307427</v>
+        <v>0.1235014441430231</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04309302731321218</v>
+        <v>0.04121554130310984</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1445850928.784276</v>
+        <v>1294248380.21431</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1497495129609485</v>
+        <v>0.1587413120688267</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04956707811852357</v>
+        <v>0.0578663574062018</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2541550689.079308</v>
+        <v>2993684172.501486</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1103991412498105</v>
+        <v>0.09277592989841199</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03202950226530562</v>
+        <v>0.04229527645579213</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4336759676.269519</v>
+        <v>3584237390.653618</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1141988139984395</v>
+        <v>0.09838590015814554</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03869988327917915</v>
+        <v>0.04719974648359724</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2189146573.808963</v>
+        <v>2124907849.03499</v>
       </c>
       <c r="F94" t="n">
-        <v>0.165449953986974</v>
+        <v>0.1056071409697578</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02974364214454666</v>
+        <v>0.03105207832224073</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3047543782.330415</v>
+        <v>3151538400.745755</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1270371743714466</v>
+        <v>0.1210715808066508</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03883203544386431</v>
+        <v>0.0508354428210455</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1826965272.056944</v>
+        <v>1451249785.816921</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09914795741024877</v>
+        <v>0.08814020721603065</v>
       </c>
       <c r="G96" t="n">
-        <v>0.042709366633832</v>
+        <v>0.04193585876054777</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5212044830.03805</v>
+        <v>3632900949.445098</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1594927147772798</v>
+        <v>0.1133194126341442</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02827828552745471</v>
+        <v>0.02793301599600654</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3758149742.235378</v>
+        <v>2963224544.369987</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08917628898691335</v>
+        <v>0.08581025272088974</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02718041318301023</v>
+        <v>0.0310088871209938</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3287714444.798132</v>
+        <v>3389871658.209273</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1156006561927924</v>
+        <v>0.1320537642109591</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02298772386132139</v>
+        <v>0.03166406704373009</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4219067486.183657</v>
+        <v>4005518774.316617</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1507579210495251</v>
+        <v>0.1693931769597283</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02508738947377232</v>
+        <v>0.02656463691515751</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2486815295.39059</v>
+        <v>3143020419.992773</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1885998954875037</v>
+        <v>0.2124697838347759</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04319271083062037</v>
+        <v>0.05104270887973871</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_398.xlsx
+++ b/output/fit_clients/fit_round_398.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2423527688.866086</v>
+        <v>2430669487.150349</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07210748016003274</v>
+        <v>0.1051714337858085</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04237211420494419</v>
+        <v>0.03386342174099446</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1788367471.676328</v>
+        <v>2562605676.426503</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1297758306067674</v>
+        <v>0.1258215387156249</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03325976006274585</v>
+        <v>0.04970386485954095</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3775723477.732852</v>
+        <v>4809433794.640676</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1130039981624901</v>
+        <v>0.1441788807060098</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02995604887864629</v>
+        <v>0.03770389689876204</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>203</v>
+      </c>
+      <c r="J4" t="n">
+        <v>397</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46.22030662096868</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2814589961.012574</v>
+        <v>3627557065.947189</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08254408228347082</v>
+        <v>0.1014321225116943</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05003884097364093</v>
+        <v>0.04527966285917145</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>163</v>
+      </c>
+      <c r="J5" t="n">
+        <v>397</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45.9482477913505</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2354703089.215113</v>
+        <v>2348977592.573829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1477360948444609</v>
+        <v>0.1327813652952111</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05573602350220214</v>
+        <v>0.03861530843691633</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2374083616.281487</v>
+        <v>2625150735.544915</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09575374607257663</v>
+        <v>0.0984743493649322</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03578924767628659</v>
+        <v>0.03968157581289933</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2542810238.80466</v>
+        <v>3549189423.686676</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1396850712761069</v>
+        <v>0.1511141441623385</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0239158420576207</v>
+        <v>0.02574027754664118</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>108</v>
+      </c>
+      <c r="J8" t="n">
+        <v>398</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1923677951.564901</v>
+        <v>2249511223.802956</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1708626981760754</v>
+        <v>0.1440077220955731</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02754566067270725</v>
+        <v>0.02887228774482622</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4079591532.7359</v>
+        <v>4720543124.564212</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1523566462909449</v>
+        <v>0.1928353304344354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05139567158690311</v>
+        <v>0.03714391098677448</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>323</v>
+      </c>
+      <c r="J10" t="n">
+        <v>397</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45.82975074035743</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2857536517.844141</v>
+        <v>4205899865.011921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1415920908127901</v>
+        <v>0.1891482972714513</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03897120331352232</v>
+        <v>0.04880315482797023</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>167</v>
+      </c>
+      <c r="J11" t="n">
+        <v>398</v>
+      </c>
+      <c r="K11" t="n">
+        <v>56.9422324925725</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2707426219.54666</v>
+        <v>3322316616.867874</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1579807623395922</v>
+        <v>0.1682072621630576</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04117453182674131</v>
+        <v>0.04134582177287417</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3973009580.828241</v>
+        <v>4513565068.761694</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09602115404813488</v>
+        <v>0.09360765105885763</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02508313793025516</v>
+        <v>0.02914646333078455</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>208</v>
+      </c>
+      <c r="J13" t="n">
+        <v>397</v>
+      </c>
+      <c r="K13" t="n">
+        <v>46.40524933477183</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +931,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2653675836.594012</v>
+        <v>3088890308.236656</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1788222432732076</v>
+        <v>0.156846174733864</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02759504150023664</v>
+        <v>0.03900333505615547</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1598096274.751409</v>
+        <v>1436260886.812373</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09967894152414408</v>
+        <v>0.09009168550786727</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03319213905434636</v>
+        <v>0.0453470770695564</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2203175830.784138</v>
+        <v>2103620049.272042</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09304899563594081</v>
+        <v>0.1069209403945526</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03767667100236778</v>
+        <v>0.04243733501145102</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1036,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4383953467.969888</v>
+        <v>4020765746.8983</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1194308934730809</v>
+        <v>0.1204710666400527</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03878075578514627</v>
+        <v>0.03599649587387647</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>192</v>
+      </c>
+      <c r="J17" t="n">
+        <v>398</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3680140059.445457</v>
+        <v>3668028156.441589</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1435561661749113</v>
+        <v>0.1494534567010313</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02695386487051327</v>
+        <v>0.02657325798026659</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>97</v>
+      </c>
+      <c r="J18" t="n">
+        <v>398</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>926813306.4813071</v>
+        <v>837107545.8159096</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1409896638159171</v>
+        <v>0.1897820187846399</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02660576562346137</v>
+        <v>0.0259680654445096</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1817227539.023284</v>
+        <v>2177247784.523623</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1437000815347231</v>
+        <v>0.1307604454803002</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03051481925751805</v>
+        <v>0.02518875621169171</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2072412545.887682</v>
+        <v>2666486241.468077</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08422572939648994</v>
+        <v>0.09010357001240105</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04178522063899015</v>
+        <v>0.04424779196513934</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3236532049.299035</v>
+        <v>3575044709.306973</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1442324650399815</v>
+        <v>0.1376273850307879</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04550403393907538</v>
+        <v>0.04844681884458037</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>110</v>
+      </c>
+      <c r="J22" t="n">
+        <v>397</v>
+      </c>
+      <c r="K22" t="n">
+        <v>43.75550817594778</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1137976305.659034</v>
+        <v>1072090255.157662</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1653977269845552</v>
+        <v>0.1593226017612063</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04101717603266913</v>
+        <v>0.0410843018430521</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4092615701.815367</v>
+        <v>3390829973.920718</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1160278960110632</v>
+        <v>0.1038360177121495</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02401695225660205</v>
+        <v>0.03180219704472161</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>124</v>
+      </c>
+      <c r="J24" t="n">
+        <v>398</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1289643066.811812</v>
+        <v>1406974132.245156</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09287682036881148</v>
+        <v>0.09096522754663161</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02615141653675293</v>
+        <v>0.03067379910203811</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1022739426.328198</v>
+        <v>1151189365.310831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09043588053486332</v>
+        <v>0.1172889900746774</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03692632799317525</v>
+        <v>0.02670087293165299</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4563467160.078381</v>
+        <v>4193049595.50061</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1275663568580217</v>
+        <v>0.1243401907733924</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02486905479752613</v>
+        <v>0.02481293449093916</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>166</v>
+      </c>
+      <c r="J27" t="n">
+        <v>398</v>
+      </c>
+      <c r="K27" t="n">
+        <v>52.40312971151722</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1419,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2556232103.900696</v>
+        <v>3364207741.858399</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1250368237308495</v>
+        <v>0.1500626759141133</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04686656259439482</v>
+        <v>0.04302919022979612</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>97</v>
+      </c>
+      <c r="J28" t="n">
+        <v>397</v>
+      </c>
+      <c r="K28" t="n">
+        <v>41.40172548935394</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4205721774.580832</v>
+        <v>5734546147.82578</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1454388063214158</v>
+        <v>0.1121109811273795</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02817154971215582</v>
+        <v>0.03128285222866309</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>338</v>
+      </c>
+      <c r="J29" t="n">
+        <v>397</v>
+      </c>
+      <c r="K29" t="n">
+        <v>47.00915569282061</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2207174575.830874</v>
+        <v>1461080293.66467</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09351974184339977</v>
+        <v>0.09641147638497488</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03104809457515055</v>
+        <v>0.02729607635772935</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1534,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1012941366.152519</v>
+        <v>956549000.1205659</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08516470843017326</v>
+        <v>0.1111362041893861</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04834895885455572</v>
+        <v>0.03359647784248006</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1563,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1587682620.076265</v>
+        <v>1672718369.833083</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1196302244095899</v>
+        <v>0.1064533351250652</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03134250812416814</v>
+        <v>0.02783059799564625</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2405897496.69605</v>
+        <v>3000219791.854786</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1603884597863512</v>
+        <v>0.1618128978794381</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0566220835951519</v>
+        <v>0.05298067035208587</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1639,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1238369537.295613</v>
+        <v>1014122149.956063</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1193417578698983</v>
+        <v>0.07545042306010721</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02546025355411493</v>
+        <v>0.02039498558582189</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>905612919.9834162</v>
+        <v>1022683817.68684</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1182335738739564</v>
+        <v>0.111442511948726</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03634553421139154</v>
+        <v>0.03775883677785383</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3195171587.55374</v>
+        <v>2974544531.890695</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1451989733260149</v>
+        <v>0.1758278003007198</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02207047767951946</v>
+        <v>0.02832024336802794</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1914857532.092145</v>
+        <v>2794788165.976183</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1067592617891018</v>
+        <v>0.1057202720938141</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02937034046520892</v>
+        <v>0.03329909223321919</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1503215332.560566</v>
+        <v>1448525689.501774</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08162013546580818</v>
+        <v>0.1026809178608232</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03583736943186231</v>
+        <v>0.02457198647227166</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1817820459.953411</v>
+        <v>2210395807.580138</v>
       </c>
       <c r="F39" t="n">
-        <v>0.136400927738632</v>
+        <v>0.1928837949316824</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02025930396767633</v>
+        <v>0.0266424283686819</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1454515846.214146</v>
+        <v>1430541097.639045</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1240939622769218</v>
+        <v>0.09931637792781289</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03675177239520976</v>
+        <v>0.0414915106840375</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1884,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1838822606.883406</v>
+        <v>1905496435.785996</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1158183090757383</v>
+        <v>0.1215527321888896</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04351640280955679</v>
+        <v>0.04249343253912399</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1913,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2789275910.350388</v>
+        <v>2772003854.277454</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1192018283288619</v>
+        <v>0.09837592945094176</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04504926911354131</v>
+        <v>0.0467065002004196</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>172</v>
+      </c>
+      <c r="J42" t="n">
+        <v>395</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1915375148.202592</v>
+        <v>2767800970.797681</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1706270910081931</v>
+        <v>0.2057075671115954</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0224082882580103</v>
+        <v>0.02267532615338251</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2036028926.367002</v>
+        <v>1720477142.205548</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07246695037213965</v>
+        <v>0.09059085493233511</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02442109824540883</v>
+        <v>0.02539842999020357</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2261315642.283815</v>
+        <v>2459793899.525122</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1328743796664208</v>
+        <v>0.143955547986518</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05512295605176594</v>
+        <v>0.037541162691736</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5210464558.416321</v>
+        <v>4875326679.382571</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1150526064597857</v>
+        <v>0.1107572779644627</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05070042115545294</v>
+        <v>0.05768155720125771</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>238</v>
+      </c>
+      <c r="J46" t="n">
+        <v>398</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4091779595.246004</v>
+        <v>3217311611.298627</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1486708720006727</v>
+        <v>0.146830835466548</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05015959730287817</v>
+        <v>0.05915361909008197</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>178</v>
+      </c>
+      <c r="J47" t="n">
+        <v>396</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4240587669.215812</v>
+        <v>3224401893.551382</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08089369767427942</v>
+        <v>0.09144175614143854</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02888441311207998</v>
+        <v>0.02454946152987966</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>205</v>
+      </c>
+      <c r="J48" t="n">
+        <v>396</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1421985972.320097</v>
+        <v>1591088717.181165</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1347271025160464</v>
+        <v>0.1742127483011953</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03576490961175475</v>
+        <v>0.03232488236476871</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3820589276.405702</v>
+        <v>4116352240.822679</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1501164465240603</v>
+        <v>0.1578054168875493</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04742172244343862</v>
+        <v>0.04487756867195202</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>135</v>
+      </c>
+      <c r="J50" t="n">
+        <v>398</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1125906224.204895</v>
+        <v>1089785236.019472</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1517538420900575</v>
+        <v>0.1659174443006307</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03715192296922398</v>
+        <v>0.05023683470631288</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3435207388.39962</v>
+        <v>3920786787.531557</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1081255088373138</v>
+        <v>0.1178341202007689</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04782901049349667</v>
+        <v>0.05626758102879937</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>231</v>
+      </c>
+      <c r="J52" t="n">
+        <v>398</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2825732999.616369</v>
+        <v>3083782578.529665</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1867222137153697</v>
+        <v>0.1467337006951051</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02439667186134723</v>
+        <v>0.0312766119653284</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3978397115.873531</v>
+        <v>4427219762.809606</v>
       </c>
       <c r="F54" t="n">
-        <v>0.165506501933997</v>
+        <v>0.1688721836540852</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04897909966242445</v>
+        <v>0.04013820217149377</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>212</v>
+      </c>
+      <c r="J54" t="n">
+        <v>398</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3643652450.290565</v>
+        <v>3369539014.633384</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2020913724221003</v>
+        <v>0.1845001658518662</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03151539208278952</v>
+        <v>0.0238325013413432</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>192</v>
+      </c>
+      <c r="J55" t="n">
+        <v>396</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1595268107.487265</v>
+        <v>1243982042.272044</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1226312364987177</v>
+        <v>0.1431598034932583</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05318070935700991</v>
+        <v>0.04851773990088635</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4128870728.000629</v>
+        <v>3701632614.001551</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1842564703007267</v>
+        <v>0.1423619802400505</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02309228029451432</v>
+        <v>0.01765942196036955</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>170</v>
+      </c>
+      <c r="J57" t="n">
+        <v>397</v>
+      </c>
+      <c r="K57" t="n">
+        <v>39.64646448539929</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1390347565.171753</v>
+        <v>1909526035.987596</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1801730192292282</v>
+        <v>0.1818304210388207</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02431028134503857</v>
+        <v>0.03068374668587636</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5288659081.078668</v>
+        <v>4869670081.684978</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08106222526347007</v>
+        <v>0.1100796100132734</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04851321942823666</v>
+        <v>0.03222493333889737</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>194</v>
+      </c>
+      <c r="J59" t="n">
+        <v>398</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2551,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3195454082.412493</v>
+        <v>2411313627.511137</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1650163772982438</v>
+        <v>0.1574459035538679</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03092191944301319</v>
+        <v>0.03079726252442507</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>73</v>
+      </c>
+      <c r="J60" t="n">
+        <v>397</v>
+      </c>
+      <c r="K60" t="n">
+        <v>25.34481528412875</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3188491787.779902</v>
+        <v>2612225560.741643</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1438694797051773</v>
+        <v>0.1271794497060012</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02363621491165815</v>
+        <v>0.02209266118305097</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1313121108.574705</v>
+        <v>1347426714.397242</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1432006928261816</v>
+        <v>0.1652872284187884</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04186646375629152</v>
+        <v>0.04929150281533283</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5584399738.691287</v>
+        <v>4334552524.582666</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07326592905148822</v>
+        <v>0.0977722745684215</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03688664935602629</v>
+        <v>0.04565635528972784</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>198</v>
+      </c>
+      <c r="J63" t="n">
+        <v>397</v>
+      </c>
+      <c r="K63" t="n">
+        <v>46.20583987560101</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4703926186.329404</v>
+        <v>4833077820.467247</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1705531568076817</v>
+        <v>0.1297128846387353</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02971768676620691</v>
+        <v>0.0253209249857742</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>198</v>
+      </c>
+      <c r="J64" t="n">
+        <v>398</v>
+      </c>
+      <c r="K64" t="n">
+        <v>48.43857050481844</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5865320894.32975</v>
+        <v>4071949953.052229</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1448138306121327</v>
+        <v>0.1267595427108122</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02250699368831903</v>
+        <v>0.02595799527439698</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>295</v>
+      </c>
+      <c r="J65" t="n">
+        <v>398</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3535646017.608044</v>
+        <v>4845290874.728671</v>
       </c>
       <c r="F66" t="n">
-        <v>0.102985473450152</v>
+        <v>0.1545519031419361</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04069545546175</v>
+        <v>0.03917392645893399</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>197</v>
+      </c>
+      <c r="J66" t="n">
+        <v>397</v>
+      </c>
+      <c r="K66" t="n">
+        <v>44.57761467053371</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2814099542.902548</v>
+        <v>2498116833.386541</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06977034886168035</v>
+        <v>0.09788338638780607</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04058914058366603</v>
+        <v>0.03746829767229133</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4226248723.557601</v>
+        <v>4144507702.268453</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09724027676865866</v>
+        <v>0.1570642984822058</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04565789803381986</v>
+        <v>0.04828765601423366</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>216</v>
+      </c>
+      <c r="J68" t="n">
+        <v>398</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1843781737.040905</v>
+        <v>1669156969.314728</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1581757467143358</v>
+        <v>0.1714146413149383</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04330582142135352</v>
+        <v>0.04165477652398893</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3343752806.251897</v>
+        <v>2689901749.49143</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0695806564671468</v>
+        <v>0.09439185571338285</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04081849698908564</v>
+        <v>0.03572027174173225</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5386499662.378092</v>
+        <v>4594122140.350492</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1431127509286496</v>
+        <v>0.1448681026455434</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02238469551337489</v>
+        <v>0.03223901614110371</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>282</v>
+      </c>
+      <c r="J71" t="n">
+        <v>398</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2183025960.129336</v>
+        <v>1540949869.793103</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07147633736512046</v>
+        <v>0.084091147197931</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04289203139067238</v>
+        <v>0.04030629630353056</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3590191295.054932</v>
+        <v>2261880777.713979</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0953609649001903</v>
+        <v>0.07399818675349272</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04286116536432368</v>
+        <v>0.03232558465700126</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2675439837.264304</v>
+        <v>2908226099.962748</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1125974130475989</v>
+        <v>0.1585861230175863</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02731964469735374</v>
+        <v>0.03160604672127094</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1621284057.19769</v>
+        <v>2414850531.637242</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1674223832797459</v>
+        <v>0.111164728698452</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02912091956374895</v>
+        <v>0.02997543228541192</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4990558744.406502</v>
+        <v>5002821163.437962</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08407517926596278</v>
+        <v>0.1227402236423838</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02871429605744587</v>
+        <v>0.02251490953322166</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>188</v>
+      </c>
+      <c r="J76" t="n">
+        <v>398</v>
+      </c>
+      <c r="K76" t="n">
+        <v>49.53018646157667</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1892442454.967709</v>
+        <v>1469673940.655891</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1621636231530157</v>
+        <v>0.1617071083236875</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02568632552786164</v>
+        <v>0.02571322301364625</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4626816236.905936</v>
+        <v>3579334855.247118</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1002188221649661</v>
+        <v>0.106659667416589</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04483285580092333</v>
+        <v>0.04617833125421137</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>198</v>
+      </c>
+      <c r="J78" t="n">
+        <v>397</v>
+      </c>
+      <c r="K78" t="n">
+        <v>35.81066367801244</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1595971386.319741</v>
+        <v>1754951121.28335</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1429854447646816</v>
+        <v>0.1305503587084805</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04028141609353938</v>
+        <v>0.03124021585131523</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4718013596.169822</v>
+        <v>5507659107.448195</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07590554244740237</v>
+        <v>0.09515471035010682</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02363015326706045</v>
+        <v>0.028284476282401</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>194</v>
+      </c>
+      <c r="J80" t="n">
+        <v>398</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3191787818.718151</v>
+        <v>4361158301.972325</v>
       </c>
       <c r="F81" t="n">
-        <v>0.108383763533232</v>
+        <v>0.09528264451737271</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02109701450982019</v>
+        <v>0.02365315395252005</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>185</v>
+      </c>
+      <c r="J81" t="n">
+        <v>398</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3727545915.769663</v>
+        <v>3693689941.320947</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1557469544386197</v>
+        <v>0.2090544678951634</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02234132868474798</v>
+        <v>0.02630314628505531</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>273</v>
+      </c>
+      <c r="J82" t="n">
+        <v>397</v>
+      </c>
+      <c r="K82" t="n">
+        <v>37.18794705903867</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1756838833.243512</v>
+        <v>2380004897.970716</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1401364001878967</v>
+        <v>0.1281822441336433</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04324483458356242</v>
+        <v>0.03111226615807675</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1893185780.892376</v>
+        <v>2304585959.367187</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08426772162757042</v>
+        <v>0.07384120240138789</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0477752097897144</v>
+        <v>0.03812845909365644</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3006500361.600194</v>
+        <v>2627159819.370466</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1669989740759275</v>
+        <v>0.1653290073793292</v>
       </c>
       <c r="G85" t="n">
-        <v>0.040758545739428</v>
+        <v>0.0440038809799076</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1790930460.326648</v>
+        <v>1828459290.403445</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1521113244080849</v>
+        <v>0.1495107425812397</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02121234318782994</v>
+        <v>0.01821130905793848</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>966907712.6391253</v>
+        <v>1150971348.71021</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1672590729091976</v>
+        <v>0.1754157330334913</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03881048871001055</v>
+        <v>0.03075326397108167</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3497528422.387812</v>
+        <v>2342981964.85875</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1555118410117138</v>
+        <v>0.1587676371609163</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02926235478259569</v>
+        <v>0.03180263590915026</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3039546877.196233</v>
+        <v>3336266310.822628</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1458855913895444</v>
+        <v>0.1274856114346808</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03569462154733993</v>
+        <v>0.02932809118544729</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1894548382.697443</v>
+        <v>1450261393.881554</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1235014441430231</v>
+        <v>0.09985017148127795</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04121554130310984</v>
+        <v>0.05279721502550631</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1294248380.21431</v>
+        <v>1878890441.618158</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1587413120688267</v>
+        <v>0.1951233638159547</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0578663574062018</v>
+        <v>0.03901860892004848</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2993684172.501486</v>
+        <v>2501704611.443487</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09277592989841199</v>
+        <v>0.08350146950311597</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04229527645579213</v>
+        <v>0.03342523057593066</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3584237390.653618</v>
+        <v>3336344581.381386</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09838590015814554</v>
+        <v>0.1178975836622778</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04719974648359724</v>
+        <v>0.05130298358867561</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>190</v>
+      </c>
+      <c r="J93" t="n">
+        <v>397</v>
+      </c>
+      <c r="K93" t="n">
+        <v>31.81522453654232</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2124907849.03499</v>
+        <v>1652436264.864786</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1056071409697578</v>
+        <v>0.1556382315219201</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03105207832224073</v>
+        <v>0.04333800082281569</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3151538400.745755</v>
+        <v>2186725668.023377</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1210715808066508</v>
+        <v>0.1320102821849612</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0508354428210455</v>
+        <v>0.04540146428341927</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1451249785.816921</v>
+        <v>1634157847.487519</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08814020721603065</v>
+        <v>0.09059735167977866</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04193585876054777</v>
+        <v>0.04290725772170249</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3632900949.445098</v>
+        <v>3826020372.599971</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1133194126341442</v>
+        <v>0.1107214371218898</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02793301599600654</v>
+        <v>0.02523874075063142</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>207</v>
+      </c>
+      <c r="J97" t="n">
+        <v>398</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2963224544.369987</v>
+        <v>3746121447.233936</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08581025272088974</v>
+        <v>0.1055209816510582</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0310088871209938</v>
+        <v>0.02976049263796737</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>101</v>
+      </c>
+      <c r="J98" t="n">
+        <v>398</v>
+      </c>
+      <c r="K98" t="n">
+        <v>49.58527433291053</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3389871658.209273</v>
+        <v>2238242132.069479</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1320537642109591</v>
+        <v>0.131216304917151</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03166406704373009</v>
+        <v>0.03273253270032459</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4005518774.316617</v>
+        <v>4189321404.791017</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1693931769597283</v>
+        <v>0.1615904665267842</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02656463691515751</v>
+        <v>0.02773303395931314</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>185</v>
+      </c>
+      <c r="J100" t="n">
+        <v>397</v>
+      </c>
+      <c r="K100" t="n">
+        <v>47.73958341159032</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3143020419.992773</v>
+        <v>3043751139.867803</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2124697838347759</v>
+        <v>0.1911888580425487</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05104270887973871</v>
+        <v>0.0373574358970833</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>37</v>
+      </c>
+      <c r="J101" t="n">
+        <v>393</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
